--- a/CRAN/docs/experiments.xlsx
+++ b/CRAN/docs/experiments.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="13230"/>
+    <workbookView windowWidth="28200" windowHeight="13230" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="experiments" sheetId="1" r:id="rId1"/>
+    <sheet name="ptb" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,12 +16,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>标准参数</t>
   </si>
   <si>
-    <t>standard</t>
+    <t>default_0312</t>
+  </si>
+  <si>
+    <t>big_0312</t>
+  </si>
+  <si>
+    <t>hard_0312</t>
+  </si>
+  <si>
+    <t>long_0312</t>
+  </si>
+  <si>
+    <t>long_0313</t>
+  </si>
+  <si>
+    <t>hard_0313</t>
+  </si>
+  <si>
+    <t>fine_0313</t>
+  </si>
+  <si>
+    <t>rough_0313</t>
   </si>
   <si>
     <t>batch_size</t>
@@ -39,6 +60,9 @@
     <t>embedding_dim</t>
   </si>
   <si>
+    <t>normc</t>
+  </si>
+  <si>
     <t>hidden_size</t>
   </si>
   <si>
@@ -63,13 +87,52 @@
     <t>seed</t>
   </si>
   <si>
+    <t>dropout</t>
+  </si>
+  <si>
+    <t>方法备注</t>
+  </si>
+  <si>
+    <t>1.1, 2.2, 3.1, 4.1</t>
+  </si>
+  <si>
+    <t>device</t>
+  </si>
+  <si>
+    <t>xps15</t>
+  </si>
+  <si>
+    <t>lowest_epoch_on_valid</t>
+  </si>
+  <si>
     <t>RESULT</t>
   </si>
   <si>
-    <t>实验：gated</t>
-  </si>
-  <si>
-    <t>实验：includehidden</t>
+    <t>valid ppl</t>
+  </si>
+  <si>
+    <t>test ppl</t>
+  </si>
+  <si>
+    <t>Transformer-XL</t>
+  </si>
+  <si>
+    <t>Dai</t>
+  </si>
+  <si>
+    <t>AWD-LSTM</t>
+  </si>
+  <si>
+    <t>Merity</t>
+  </si>
+  <si>
+    <t>AWD-LSTM + continuous cache pointer</t>
+  </si>
+  <si>
+    <t>AWD-LSTM-MoS</t>
+  </si>
+  <si>
+    <t>Yang</t>
   </si>
 </sst>
 </file>
@@ -77,10 +140,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -88,6 +151,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -106,6 +177,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -114,8 +206,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,89 +277,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,14 +297,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -244,187 +307,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,6 +526,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -472,6 +550,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -491,8 +584,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,38 +593,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,109 +603,109 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -651,37 +714,37 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1037,151 +1100,611 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="20.25" customWidth="1"/>
+    <col min="5" max="5" width="18.625" customWidth="1"/>
+    <col min="6" max="6" width="15.75" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="8" max="8" width="14.875" customWidth="1"/>
+    <col min="9" max="9" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>20</v>
+      </c>
+      <c r="I2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4">
+        <v>35</v>
+      </c>
+      <c r="D4">
+        <v>35</v>
+      </c>
+      <c r="E4">
+        <v>35</v>
+      </c>
+      <c r="F4">
+        <v>35</v>
+      </c>
+      <c r="G4">
+        <v>35</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>10000</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>10000</v>
+      </c>
+      <c r="D5">
+        <v>10000</v>
+      </c>
+      <c r="E5">
+        <v>10000</v>
+      </c>
+      <c r="F5">
+        <v>10000</v>
+      </c>
+      <c r="G5">
+        <v>10000</v>
+      </c>
+      <c r="H5">
+        <v>10000</v>
+      </c>
+      <c r="I5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>300</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6">
+        <v>300</v>
+      </c>
+      <c r="D6">
+        <v>300</v>
+      </c>
+      <c r="E6">
+        <v>300</v>
+      </c>
+      <c r="F6">
+        <v>300</v>
+      </c>
+      <c r="G6">
+        <v>300</v>
+      </c>
+      <c r="H6">
+        <v>300</v>
+      </c>
+      <c r="I6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B8">
+        <v>300</v>
+      </c>
+      <c r="C8">
+        <v>300</v>
+      </c>
+      <c r="D8">
+        <v>300</v>
+      </c>
+      <c r="E8">
+        <v>300</v>
+      </c>
+      <c r="F8">
+        <v>300</v>
+      </c>
+      <c r="G8">
+        <v>300</v>
+      </c>
+      <c r="H8">
+        <v>300</v>
+      </c>
+      <c r="I8">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>300</v>
+      </c>
+      <c r="C10">
+        <v>300</v>
+      </c>
+      <c r="D10">
+        <v>300</v>
+      </c>
+      <c r="E10">
+        <v>300</v>
+      </c>
+      <c r="F10">
+        <v>300</v>
+      </c>
+      <c r="G10">
+        <v>300</v>
+      </c>
+      <c r="H10">
+        <v>300</v>
+      </c>
+      <c r="I10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+      <c r="G11">
+        <v>50</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>0.1</v>
+      </c>
+      <c r="C13">
+        <v>0.1</v>
+      </c>
+      <c r="D13">
+        <v>0.1</v>
+      </c>
+      <c r="E13">
+        <v>0.1</v>
+      </c>
+      <c r="F13">
+        <v>0.1</v>
+      </c>
+      <c r="G13">
+        <v>0.1</v>
+      </c>
+      <c r="H13">
+        <v>0.1</v>
+      </c>
+      <c r="I13">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>30</v>
+      </c>
+      <c r="E14">
+        <v>30</v>
+      </c>
+      <c r="F14">
+        <v>30</v>
+      </c>
+      <c r="G14">
+        <v>30</v>
+      </c>
+      <c r="H14">
+        <v>30</v>
+      </c>
+      <c r="I14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>1111</v>
+      </c>
+      <c r="C15">
+        <v>1111</v>
+      </c>
+      <c r="D15">
+        <v>1111</v>
+      </c>
+      <c r="E15">
+        <v>1111</v>
+      </c>
+      <c r="F15">
+        <v>1111</v>
+      </c>
+      <c r="G15">
+        <v>1111</v>
+      </c>
+      <c r="H15">
+        <v>1111</v>
+      </c>
+      <c r="I15">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>0.1</v>
+      </c>
+      <c r="C16">
+        <v>0.1</v>
+      </c>
+      <c r="D16">
+        <v>0.1</v>
+      </c>
+      <c r="E16">
+        <v>0.1</v>
+      </c>
+      <c r="F16">
+        <v>0.1</v>
+      </c>
+      <c r="G16">
+        <v>0.1</v>
+      </c>
+      <c r="H16">
+        <v>0.1</v>
+      </c>
+      <c r="I16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19">
+        <v>243</v>
+      </c>
+      <c r="E19">
+        <v>243</v>
+      </c>
+      <c r="F19">
+        <v>243</v>
+      </c>
+      <c r="G19">
+        <v>243</v>
+      </c>
+      <c r="H19">
+        <v>243</v>
+      </c>
+      <c r="I19">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21">
+        <v>27</v>
+      </c>
+      <c r="C21">
+        <v>27</v>
+      </c>
+      <c r="D21">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>22</v>
+      </c>
+      <c r="F21">
+        <v>27</v>
+      </c>
+      <c r="G21">
+        <v>26</v>
+      </c>
+      <c r="H21">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>229.97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20">
-        <v>276.35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="I21">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>218.41</v>
+        <v>191.49</v>
+      </c>
+      <c r="C22">
+        <v>196.96</v>
+      </c>
+      <c r="D22">
+        <v>200.59</v>
+      </c>
+      <c r="E22">
+        <v>190.11</v>
+      </c>
+      <c r="F22">
+        <v>185.48</v>
+      </c>
+      <c r="G22">
+        <v>178.53</v>
+      </c>
+      <c r="H22">
+        <v>189.32</v>
+      </c>
+      <c r="I22">
+        <v>181.91</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1194,14 +1717,96 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="4" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:5">
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2">
+        <v>2019</v>
+      </c>
+      <c r="D2">
+        <v>56.72</v>
+      </c>
+      <c r="E2">
+        <v>54.52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3">
+        <v>2017</v>
+      </c>
+      <c r="D3">
+        <v>60</v>
+      </c>
+      <c r="E3">
+        <v>57.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4">
+        <v>2017</v>
+      </c>
+      <c r="D4">
+        <v>53.9</v>
+      </c>
+      <c r="E4">
+        <v>52.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5">
+        <v>2017</v>
+      </c>
+      <c r="D5">
+        <v>56.54</v>
+      </c>
+      <c r="E5">
+        <v>54.44</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/CRAN/docs/experiments.xlsx
+++ b/CRAN/docs/experiments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="13230" activeTab="1"/>
+    <workbookView windowWidth="27195" windowHeight="12825"/>
   </bookViews>
   <sheets>
     <sheet name="experiments" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="78">
   <si>
     <t>标准参数</t>
   </si>
@@ -108,31 +108,148 @@
     <t>RESULT</t>
   </si>
   <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>params(M)</t>
+  </si>
+  <si>
     <t>valid ppl</t>
   </si>
   <si>
     <t>test ppl</t>
   </si>
   <si>
+    <t>KN5</t>
+  </si>
+  <si>
+    <t>Mikolov &amp; Zweig</t>
+  </si>
+  <si>
+    <t>KN5 + cache</t>
+  </si>
+  <si>
+    <t>RNN</t>
+  </si>
+  <si>
+    <t>RNN-LDA</t>
+  </si>
+  <si>
+    <t>RNN-LDA + KN-5 + cache</t>
+  </si>
+  <si>
+    <t>LSTM (medium)</t>
+  </si>
+  <si>
+    <t>Zaremba</t>
+  </si>
+  <si>
+    <t>LSTM</t>
+  </si>
+  <si>
+    <t>Grave</t>
+  </si>
+  <si>
+    <t>Variational LSTM (medium)</t>
+  </si>
+  <si>
+    <t>Gal &amp; Ghahramani</t>
+  </si>
+  <si>
+    <t>CharCNN</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>Variational LSTM (medium, MC)</t>
+  </si>
+  <si>
+    <t>LSTM (large)</t>
+  </si>
+  <si>
+    <t>Variational LSTM (large)</t>
+  </si>
+  <si>
+    <t>Variational LSTM (large, MC)</t>
+  </si>
+  <si>
+    <t>Variational LSTM (tied) + augmented loss</t>
+  </si>
+  <si>
+    <t>Inan</t>
+  </si>
+  <si>
+    <t>LSTM + continuous cache pointer</t>
+  </si>
+  <si>
+    <t>Pointer Sentinel-LSTM</t>
+  </si>
+  <si>
+    <t>Merity</t>
+  </si>
+  <si>
+    <t>Variational RHN (tied)</t>
+  </si>
+  <si>
+    <t>Zilly</t>
+  </si>
+  <si>
+    <t>NAS Cell (tied)</t>
+  </si>
+  <si>
+    <t>Zoph &amp; Le</t>
+  </si>
+  <si>
+    <t>AWD-LSTM</t>
+  </si>
+  <si>
+    <t>Efficient NAS</t>
+  </si>
+  <si>
+    <t>Pham</t>
+  </si>
+  <si>
+    <t>4-layer skip connection LSTM (tied)</t>
+  </si>
+  <si>
+    <t>Melis</t>
+  </si>
+  <si>
+    <t>AWD-LSTM - 3-layer LSTM (tied)</t>
+  </si>
+  <si>
+    <t>Differentiable NAS</t>
+  </si>
+  <si>
+    <t>Liu</t>
+  </si>
+  <si>
+    <t>AWD-LSTM-MoS</t>
+  </si>
+  <si>
+    <t>Yang</t>
+  </si>
+  <si>
+    <t>2-layer skip-LSTM + dropout tuning</t>
+  </si>
+  <si>
     <t>Transformer-XL</t>
   </si>
   <si>
     <t>Dai</t>
   </si>
   <si>
-    <t>AWD-LSTM</t>
-  </si>
-  <si>
-    <t>Merity</t>
-  </si>
-  <si>
-    <t>AWD-LSTM + continuous cache pointer</t>
-  </si>
-  <si>
-    <t>AWD-LSTM-MoS</t>
-  </si>
-  <si>
-    <t>Yang</t>
+    <t>AWD-LSTM-MoS + finetuning</t>
+  </si>
+  <si>
+    <t>AWD-LSTM - 3-layer LSTM (tied) + continuous cache pointer</t>
   </si>
 </sst>
 </file>
@@ -141,9 +258,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -163,7 +280,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,30 +309,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -215,37 +318,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,17 +334,40 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -284,7 +380,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,6 +407,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -307,187 +424,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,11 +618,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,21 +682,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -550,21 +691,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -589,156 +715,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1102,8 +1219,8 @@
   <sheetPr/>
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1717,96 +1834,604 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="1" max="1" width="51.25" customWidth="1"/>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
     <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:5">
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C2">
+        <v>2012</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>141.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3">
+        <v>2012</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>125.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4">
+        <v>2012</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>124.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5">
+        <v>2012</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>113.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6">
+        <v>2012</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7">
+        <v>2014</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>86.2</v>
+      </c>
+      <c r="F7">
+        <v>82.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8">
+        <v>2016</v>
+      </c>
+      <c r="F8">
+        <v>82.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9">
+        <v>2016</v>
+      </c>
+      <c r="D9">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>81.9</v>
+      </c>
+      <c r="F9">
+        <v>79.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10">
+        <v>2016</v>
+      </c>
+      <c r="D10">
+        <v>19</v>
+      </c>
+      <c r="F10">
+        <v>78.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11">
+        <v>2016</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <v>78.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12">
+        <v>2014</v>
+      </c>
+      <c r="D12">
+        <v>66</v>
+      </c>
+      <c r="E12">
+        <v>82.2</v>
+      </c>
+      <c r="F12">
+        <v>78.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13">
+        <v>2016</v>
+      </c>
+      <c r="D13">
+        <v>66</v>
+      </c>
+      <c r="E13">
+        <v>77.9</v>
+      </c>
+      <c r="F13">
+        <v>75.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14">
+        <v>2016</v>
+      </c>
+      <c r="D14">
+        <v>66</v>
+      </c>
+      <c r="F14">
+        <v>73.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15">
+        <v>2016</v>
+      </c>
+      <c r="D15">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>75.7</v>
+      </c>
+      <c r="F15">
+        <v>73.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16">
+        <v>2016</v>
+      </c>
+      <c r="F16">
+        <v>72.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17">
+        <v>2016</v>
+      </c>
+      <c r="D17">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>72.4</v>
+      </c>
+      <c r="F17">
+        <v>70.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18">
+        <v>2016</v>
+      </c>
+      <c r="D18">
+        <v>51</v>
+      </c>
+      <c r="E18">
+        <v>71.7</v>
+      </c>
+      <c r="F18">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19">
+        <v>2016</v>
+      </c>
+      <c r="D19">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>67.9</v>
+      </c>
+      <c r="F19">
+        <v>65.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20">
+        <v>2016</v>
+      </c>
+      <c r="D20">
+        <v>25</v>
+      </c>
+      <c r="F20">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21">
+        <v>2016</v>
+      </c>
+      <c r="D21">
+        <v>54</v>
+      </c>
+      <c r="F21">
+        <v>62.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22">
+        <v>2017</v>
+      </c>
+      <c r="D22">
+        <v>24</v>
+      </c>
+      <c r="E22">
+        <v>60.7</v>
+      </c>
+      <c r="F22">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23">
+        <v>2018</v>
+      </c>
+      <c r="D23">
+        <v>24</v>
+      </c>
+      <c r="E23">
+        <v>60.8</v>
+      </c>
+      <c r="F23">
+        <v>58.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24">
+        <v>2017</v>
+      </c>
+      <c r="D24">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>60.9</v>
+      </c>
+      <c r="F24">
+        <v>58.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25">
+        <v>2017</v>
+      </c>
+      <c r="D25">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>60</v>
+      </c>
+      <c r="F25">
+        <v>57.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26">
+        <v>2018</v>
+      </c>
+      <c r="D26">
+        <v>23</v>
+      </c>
+      <c r="E26">
+        <v>58.3</v>
+      </c>
+      <c r="F26">
+        <v>56.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27">
+        <v>2017</v>
+      </c>
+      <c r="D27">
+        <v>22</v>
+      </c>
+      <c r="E27">
+        <v>58.08</v>
+      </c>
+      <c r="F27">
+        <v>55.97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28">
+        <v>2018</v>
+      </c>
+      <c r="D28">
+        <v>24</v>
+      </c>
+      <c r="E28">
+        <v>57.1</v>
+      </c>
+      <c r="F28">
+        <v>55.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29">
         <v>2019</v>
       </c>
-      <c r="D2">
+      <c r="D29">
+        <v>24</v>
+      </c>
+      <c r="E29">
         <v>56.72</v>
       </c>
-      <c r="E2">
+      <c r="F29">
         <v>54.52</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3">
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30">
         <v>2017</v>
       </c>
-      <c r="D3">
-        <v>60</v>
-      </c>
-      <c r="E3">
-        <v>57.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4">
+      <c r="D30">
+        <v>22</v>
+      </c>
+      <c r="E30">
+        <v>56.54</v>
+      </c>
+      <c r="F30">
+        <v>54.44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31">
         <v>2017</v>
       </c>
-      <c r="D4">
+      <c r="D31">
+        <v>24</v>
+      </c>
+      <c r="E31">
         <v>53.9</v>
       </c>
-      <c r="E4">
+      <c r="F31">
         <v>52.8</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5">
-        <v>2017</v>
-      </c>
-      <c r="D5">
-        <v>56.54</v>
-      </c>
-      <c r="E5">
-        <v>54.44</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState ref="A2:F33">
+    <sortCondition ref="F2" descending="1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/CRAN/docs/experiments.xlsx
+++ b/CRAN/docs/experiments.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27195" windowHeight="12825"/>
+    <workbookView windowWidth="27195" windowHeight="12825" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="experiments" sheetId="1" r:id="rId1"/>
     <sheet name="ptb" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="NL" sheetId="3" r:id="rId3"/>
+    <sheet name="k" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="98">
   <si>
     <t>标准参数</t>
   </si>
@@ -250,6 +251,66 @@
   </si>
   <si>
     <t>AWD-LSTM - 3-layer LSTM (tied) + continuous cache pointer</t>
+  </si>
+  <si>
+    <t>相同覆盖范围下N、L不同取值对模型的影响实验</t>
+  </si>
+  <si>
+    <t>实验名称</t>
+  </si>
+  <si>
+    <t>lowest epoch on</t>
+  </si>
+  <si>
+    <t>time 在不同卡上跑可能没有可比性</t>
+  </si>
+  <si>
+    <t>固定N*L</t>
+  </si>
+  <si>
+    <t>其余参数</t>
+  </si>
+  <si>
+    <t>NL_1</t>
+  </si>
+  <si>
+    <t>2h54m22s</t>
+  </si>
+  <si>
+    <t>NL_2</t>
+  </si>
+  <si>
+    <t>2h57m5s</t>
+  </si>
+  <si>
+    <t>NL_3</t>
+  </si>
+  <si>
+    <t>2h58m39s</t>
+  </si>
+  <si>
+    <t>NL_4</t>
+  </si>
+  <si>
+    <t>2h59m22s</t>
+  </si>
+  <si>
+    <t>NL_5</t>
+  </si>
+  <si>
+    <t>NL_6</t>
+  </si>
+  <si>
+    <t>NL_7</t>
+  </si>
+  <si>
+    <t>NL_8</t>
+  </si>
+  <si>
+    <t>相同N、L取值下，选取zone个数k的影响</t>
+  </si>
+  <si>
+    <t>固定参数</t>
   </si>
 </sst>
 </file>
@@ -257,8 +318,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -271,24 +332,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,8 +347,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,18 +363,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -342,7 +381,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,6 +404,35 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,31 +447,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -400,16 +468,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -424,25 +485,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,25 +611,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,55 +641,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,67 +665,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,6 +676,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -629,15 +708,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,11 +727,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,21 +753,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -720,148 +781,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1219,8 +1280,8 @@
   <sheetPr/>
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1836,8 +1897,8 @@
   <sheetPr/>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="5"/>
@@ -2441,16 +2502,482 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="H1" sqref="H1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="15.875" customWidth="1"/>
+    <col min="6" max="6" width="16.125" customWidth="1"/>
+    <col min="7" max="7" width="14.125" customWidth="1"/>
+    <col min="8" max="8" width="17.375" customWidth="1"/>
+    <col min="9" max="9" width="13.25" customWidth="1"/>
+    <col min="10" max="10" width="19.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>40</v>
+      </c>
+      <c r="H4">
+        <v>25</v>
+      </c>
+      <c r="I4">
+        <v>185.26</v>
+      </c>
+      <c r="J4">
+        <v>177.42</v>
+      </c>
+      <c r="K4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>30</v>
+      </c>
+      <c r="H5">
+        <v>25</v>
+      </c>
+      <c r="I5">
+        <v>188.05</v>
+      </c>
+      <c r="J5">
+        <v>178.42</v>
+      </c>
+      <c r="K5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>24</v>
+      </c>
+      <c r="H6">
+        <v>26</v>
+      </c>
+      <c r="I6">
+        <v>190.92</v>
+      </c>
+      <c r="J6">
+        <v>179.86</v>
+      </c>
+      <c r="K6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>10000</v>
+      </c>
+      <c r="E7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>27</v>
+      </c>
+      <c r="I7">
+        <v>194.82</v>
+      </c>
+      <c r="J7">
+        <v>181.86</v>
+      </c>
+      <c r="K7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>300</v>
+      </c>
+      <c r="E8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>300</v>
+      </c>
+      <c r="E9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>300</v>
+      </c>
+      <c r="E10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11">
+        <v>30</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>0.1</v>
+      </c>
+      <c r="F12">
+        <v>40</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>30</v>
+      </c>
+      <c r="F13">
+        <v>60</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>1111</v>
+      </c>
+      <c r="F14">
+        <v>120</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="17.25" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="7" max="7" width="18.375" customWidth="1"/>
+    <col min="8" max="8" width="12.625" customWidth="1"/>
+    <col min="9" max="9" width="12.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>35</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>10000</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>300</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>300</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>300</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/CRAN/docs/experiments.xlsx
+++ b/CRAN/docs/experiments.xlsx
@@ -4,20 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27195" windowHeight="12825" activeTab="3"/>
+    <workbookView windowWidth="28200" windowHeight="13230" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="experiments" sheetId="1" r:id="rId1"/>
     <sheet name="ptb" sheetId="2" r:id="rId2"/>
     <sheet name="NL" sheetId="3" r:id="rId3"/>
     <sheet name="k" sheetId="4" r:id="rId4"/>
+    <sheet name="summary" sheetId="5" r:id="rId5"/>
+    <sheet name="num_steps" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="185">
   <si>
     <t>标准参数</t>
   </si>
@@ -271,6 +274,9 @@
     <t>其余参数</t>
   </si>
   <si>
+    <t>固定k</t>
+  </si>
+  <si>
     <t>NL_1</t>
   </si>
   <si>
@@ -298,19 +304,277 @@
     <t>NL_5</t>
   </si>
   <si>
+    <t>2h4m14s</t>
+  </si>
+  <si>
     <t>NL_6</t>
   </si>
   <si>
+    <t>2h14m31s</t>
+  </si>
+  <si>
     <t>NL_7</t>
   </si>
   <si>
+    <t>2h9m39s</t>
+  </si>
+  <si>
     <t>NL_8</t>
   </si>
   <si>
+    <t>2h19m36s</t>
+  </si>
+  <si>
+    <t>NL_9</t>
+  </si>
+  <si>
+    <t>2h19m33s</t>
+  </si>
+  <si>
+    <t>NL_10</t>
+  </si>
+  <si>
+    <t>2h30m42s</t>
+  </si>
+  <si>
+    <t>NL_11</t>
+  </si>
+  <si>
+    <t>3h20m55s</t>
+  </si>
+  <si>
+    <t>固定k定义的窗口大小</t>
+  </si>
+  <si>
+    <t>NL_k1</t>
+  </si>
+  <si>
+    <t>4h25m34s</t>
+  </si>
+  <si>
+    <t>NL_k2</t>
+  </si>
+  <si>
+    <t>2h56m32s</t>
+  </si>
+  <si>
+    <t>NL_k3</t>
+  </si>
+  <si>
+    <t>2h41m25s</t>
+  </si>
+  <si>
+    <t>NL_k4</t>
+  </si>
+  <si>
+    <t>2h51m10s</t>
+  </si>
+  <si>
+    <t>NL_k5</t>
+  </si>
+  <si>
+    <t>2h49m44s</t>
+  </si>
+  <si>
+    <t>NL_k6</t>
+  </si>
+  <si>
+    <t>2h46m28s</t>
+  </si>
+  <si>
+    <t>NL_k7</t>
+  </si>
+  <si>
+    <t>2h28m17s</t>
+  </si>
+  <si>
+    <t>NL_k8</t>
+  </si>
+  <si>
+    <t>2h28m16s</t>
+  </si>
+  <si>
+    <t>NL_k9</t>
+  </si>
+  <si>
+    <t>2h51m12s</t>
+  </si>
+  <si>
+    <t>NL_k10</t>
+  </si>
+  <si>
+    <t>2h47m21s</t>
+  </si>
+  <si>
+    <t>实验1分析</t>
+  </si>
+  <si>
+    <t>固定了attention能照顾到的最大范围</t>
+  </si>
+  <si>
+    <t>k固定的情况下，意味着L越大，每次attention的范围越大</t>
+  </si>
+  <si>
+    <t>L越大，最后的结果越好</t>
+  </si>
+  <si>
+    <t>把L开到最大，使得N=k，即所有的区域都要做attention，结果仍然不好</t>
+  </si>
+  <si>
+    <t>分析：若设置N=1, L=1, k=1，模型等价于一个num_steps为1的RNN， 超弱！</t>
+  </si>
+  <si>
+    <t>说明原本的attention机制在语言模型上能力不强</t>
+  </si>
+  <si>
+    <t>无法期待在选择了区域后能够变强</t>
+  </si>
+  <si>
+    <t>运行时间上选择区域的attention和对每个区域中的hidden做attention都需要消耗时间，哪一边变得超大都会使得总时间变多</t>
+  </si>
+  <si>
+    <t>实验2分析</t>
+  </si>
+  <si>
+    <t>固定了每次attention的窗口大小</t>
+  </si>
+  <si>
+    <t>L越大，每次attention的区域数量越小，总attention的词数是一样的</t>
+  </si>
+  <si>
+    <t>窗口大小固定的情况下，似乎是区域越少，效果越好</t>
+  </si>
+  <si>
+    <t>可能是区域多时选区域遇到了麻烦</t>
+  </si>
+  <si>
+    <t>运行时间上区域少并没有使程序变得更慢</t>
+  </si>
+  <si>
     <t>相同N、L取值下，选取zone个数k的影响</t>
   </si>
   <si>
     <t>固定参数</t>
+  </si>
+  <si>
+    <t>k_1</t>
+  </si>
+  <si>
+    <t>2h11m7s</t>
+  </si>
+  <si>
+    <t>k_2</t>
+  </si>
+  <si>
+    <t>2h17m6s</t>
+  </si>
+  <si>
+    <t>k_3</t>
+  </si>
+  <si>
+    <t>k_4</t>
+  </si>
+  <si>
+    <t>2h17m1s</t>
+  </si>
+  <si>
+    <t>k_5</t>
+  </si>
+  <si>
+    <t>2h21m15s</t>
+  </si>
+  <si>
+    <t>k_7</t>
+  </si>
+  <si>
+    <t>2h23m10s</t>
+  </si>
+  <si>
+    <t>k_8</t>
+  </si>
+  <si>
+    <t>2h23m39s</t>
+  </si>
+  <si>
+    <t>不同的key 的生成方式的影响</t>
+  </si>
+  <si>
+    <t>方法</t>
+  </si>
+  <si>
+    <t>方法参数</t>
+  </si>
+  <si>
+    <t>summary_0</t>
+  </si>
+  <si>
+    <t>4.1 Linear</t>
+  </si>
+  <si>
+    <t>summary_mlp_3</t>
+  </si>
+  <si>
+    <t>4.2 MLP</t>
+  </si>
+  <si>
+    <t>num_layer=3</t>
+  </si>
+  <si>
+    <t>summary_mlp_5</t>
+  </si>
+  <si>
+    <t>num_layer=5</t>
+  </si>
+  <si>
+    <t>summary_bilstm_2</t>
+  </si>
+  <si>
+    <t>4.3 BiLSTM</t>
+  </si>
+  <si>
+    <t>num_layer=2</t>
+  </si>
+  <si>
+    <t>summary_bilstm_4</t>
+  </si>
+  <si>
+    <t>num_layer=4</t>
+  </si>
+  <si>
+    <t>summry_transformer_6</t>
+  </si>
+  <si>
+    <t>4.4 Transformer</t>
+  </si>
+  <si>
+    <t>num_head=6</t>
+  </si>
+  <si>
+    <t>summry_transformer_12</t>
+  </si>
+  <si>
+    <t>num_head=12</t>
+  </si>
+  <si>
+    <t>1.1, 2.2, 3.1</t>
+  </si>
+  <si>
+    <t>Linear</t>
+  </si>
+  <si>
+    <t>MLP</t>
+  </si>
+  <si>
+    <t>BiLSTM</t>
+  </si>
+  <si>
+    <t>Transformer</t>
+  </si>
+  <si>
+    <t>调研基于attention的语言模型论文，</t>
+  </si>
+  <si>
+    <t>至少实现一种</t>
   </si>
 </sst>
 </file>
@@ -318,10 +582,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -332,8 +596,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,24 +627,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -387,15 +650,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -416,6 +681,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -423,24 +703,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -453,14 +725,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -468,9 +732,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -485,13 +749,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,19 +761,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,13 +785,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,61 +797,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,7 +815,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,13 +833,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,25 +899,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,15 +952,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -708,6 +963,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,17 +1012,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -767,162 +1040,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -989,6 +1253,2807 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="en-US"/>
+              <a:t>N*L, k不变，L-ppl</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>NL!$G$4:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>NL!$J$4:$J$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>177.42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>178.42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>179.86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>181.86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>183.32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>189.03</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>193.37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>199.52</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>206.89</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>214.59</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>229.32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="174084635"/>
+        <c:axId val="941155257"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="174084635"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="941155257"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="941155257"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="150"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="174084635"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="en-US"/>
+              <a:t>N*L,k*L不变， L-ppl</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>NL!$G$18:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>NL!$J$18:$J$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>212.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>196.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>190.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>183.57</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>184.65</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>185.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180.09</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>187.39</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>181.86</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>181.46</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>178.34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="846091898"/>
+        <c:axId val="85318033"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="846091898"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="85318033"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="85318033"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="846091898"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="en-US"/>
+              <a:t>N、L不变，k-ppl</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>k!$F$2:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>k!$H$2:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>215.61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>206.93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>202.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>201.32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>195.46</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>193.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>192.16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>191.08</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="956295412"/>
+        <c:axId val="22572928"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="956295412"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="22572928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="22572928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="956295412"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="123825" y="6816725"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>663575</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="311150" y="11442700"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4648200" y="2616200"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1281,7 +4346,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B18"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2502,10 +5567,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:K1"/>
+      <selection activeCell="I4" sqref="I4:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2554,9 +5619,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>83</v>
+      </c>
+      <c r="E3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2567,7 +5635,7 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -2585,7 +5653,7 @@
         <v>177.42</v>
       </c>
       <c r="K4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2596,7 +5664,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -2614,7 +5682,7 @@
         <v>178.42</v>
       </c>
       <c r="K5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2625,7 +5693,7 @@
         <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -2643,7 +5711,7 @@
         <v>179.86</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2654,7 +5722,7 @@
         <v>10000</v>
       </c>
       <c r="E7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -2672,10 +5740,10 @@
         <v>181.86</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -2683,7 +5751,7 @@
         <v>300</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F8">
         <v>8</v>
@@ -2691,8 +5759,20 @@
       <c r="G8">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <v>29</v>
+      </c>
+      <c r="I8">
+        <v>194.56</v>
+      </c>
+      <c r="J8">
+        <v>183.32</v>
+      </c>
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -2700,7 +5780,7 @@
         <v>300</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -2708,8 +5788,20 @@
       <c r="G9">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9">
+        <v>27</v>
+      </c>
+      <c r="I9">
+        <v>201.06</v>
+      </c>
+      <c r="J9">
+        <v>189.03</v>
+      </c>
+      <c r="K9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -2717,7 +5809,7 @@
         <v>300</v>
       </c>
       <c r="E10" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F10">
         <v>20</v>
@@ -2725,8 +5817,20 @@
       <c r="G10">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10">
+        <v>29</v>
+      </c>
+      <c r="I10">
+        <v>206.62</v>
+      </c>
+      <c r="J10">
+        <v>193.37</v>
+      </c>
+      <c r="K10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -2734,7 +5838,7 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F11">
         <v>30</v>
@@ -2742,47 +5846,104 @@
       <c r="G11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11">
+        <v>26</v>
+      </c>
+      <c r="I11">
+        <v>213.36</v>
+      </c>
+      <c r="J11">
+        <v>199.52</v>
+      </c>
+      <c r="K11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>20</v>
       </c>
       <c r="B12">
         <v>0.1</v>
       </c>
+      <c r="E12" t="s">
+        <v>101</v>
+      </c>
       <c r="F12">
         <v>40</v>
       </c>
       <c r="G12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12">
+        <v>30</v>
+      </c>
+      <c r="I12">
+        <v>220.61</v>
+      </c>
+      <c r="J12">
+        <v>206.89</v>
+      </c>
+      <c r="K12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>21</v>
       </c>
       <c r="B13">
         <v>30</v>
       </c>
+      <c r="E13" t="s">
+        <v>103</v>
+      </c>
       <c r="F13">
         <v>60</v>
       </c>
       <c r="G13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13">
+        <v>27</v>
+      </c>
+      <c r="I13">
+        <v>230.8</v>
+      </c>
+      <c r="J13">
+        <v>214.59</v>
+      </c>
+      <c r="K13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>22</v>
       </c>
       <c r="B14">
         <v>1111</v>
       </c>
+      <c r="E14" t="s">
+        <v>105</v>
+      </c>
       <c r="F14">
         <v>120</v>
       </c>
       <c r="G14">
         <v>1</v>
+      </c>
+      <c r="H14">
+        <v>26</v>
+      </c>
+      <c r="I14">
+        <v>247.69</v>
+      </c>
+      <c r="J14">
+        <v>229.32</v>
+      </c>
+      <c r="K14" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2793,28 +5954,399 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>24</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="4:11">
+      <c r="D18">
+        <v>60</v>
+      </c>
+      <c r="E18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18">
+        <v>120</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>26</v>
+      </c>
+      <c r="I18">
+        <v>226.38</v>
+      </c>
+      <c r="J18">
+        <v>212.13</v>
+      </c>
+      <c r="K18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="4:11">
+      <c r="D19">
+        <v>30</v>
+      </c>
+      <c r="E19" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19">
+        <v>60</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>27</v>
+      </c>
+      <c r="I19">
+        <v>210.48</v>
+      </c>
+      <c r="J19">
+        <v>196.85</v>
+      </c>
+      <c r="K19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="4:11">
+      <c r="D20">
+        <v>20</v>
+      </c>
+      <c r="E20" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20">
+        <v>40</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>26</v>
+      </c>
+      <c r="I20">
+        <v>202.66</v>
+      </c>
+      <c r="J20">
+        <v>190.07</v>
+      </c>
+      <c r="K20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="4:11">
+      <c r="D21">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>114</v>
+      </c>
+      <c r="F21">
+        <v>30</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="H21">
+        <v>26</v>
+      </c>
+      <c r="I21">
+        <v>195.84</v>
+      </c>
+      <c r="J21">
+        <v>183.57</v>
+      </c>
+      <c r="K21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="4:11">
+      <c r="D22">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22">
+        <v>24</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="H22">
+        <v>28</v>
+      </c>
+      <c r="I22">
+        <v>197.04</v>
+      </c>
+      <c r="J22">
+        <v>184.65</v>
+      </c>
+      <c r="K22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="4:11">
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23">
+        <v>20</v>
+      </c>
+      <c r="G23">
+        <v>6</v>
+      </c>
+      <c r="H23">
+        <v>25</v>
+      </c>
+      <c r="I23">
+        <v>196.58</v>
+      </c>
+      <c r="J23">
+        <v>185.3</v>
+      </c>
+      <c r="K23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="4:11">
+      <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>120</v>
+      </c>
+      <c r="F24">
+        <v>12</v>
+      </c>
+      <c r="G24">
+        <v>10</v>
+      </c>
+      <c r="H24">
+        <v>27</v>
+      </c>
+      <c r="I24">
+        <v>193.15</v>
+      </c>
+      <c r="J24">
+        <v>180.09</v>
+      </c>
+      <c r="K24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="4:11">
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>122</v>
+      </c>
+      <c r="F25">
+        <v>10</v>
+      </c>
+      <c r="G25">
+        <v>12</v>
+      </c>
+      <c r="H25">
+        <v>30</v>
+      </c>
+      <c r="I25">
+        <v>200.5</v>
+      </c>
+      <c r="J25">
+        <v>187.39</v>
+      </c>
+      <c r="K25" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="4:11">
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26">
+        <v>6</v>
+      </c>
+      <c r="G26">
+        <v>20</v>
+      </c>
+      <c r="H26">
+        <v>27</v>
+      </c>
+      <c r="I26">
+        <v>194.82</v>
+      </c>
+      <c r="J26">
+        <v>181.86</v>
+      </c>
+      <c r="K26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="4:11">
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>124</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <v>30</v>
+      </c>
+      <c r="H27">
+        <v>28</v>
+      </c>
+      <c r="I27">
+        <v>190.94</v>
+      </c>
+      <c r="J27">
+        <v>181.46</v>
+      </c>
+      <c r="K27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="4:11">
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>126</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>60</v>
+      </c>
+      <c r="H28">
+        <v>27</v>
+      </c>
+      <c r="I28">
+        <v>188.14</v>
+      </c>
+      <c r="J28">
+        <v>178.34</v>
+      </c>
+      <c r="K28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>132</v>
+      </c>
+      <c r="F37" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2828,7 +6360,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="E1" t="s">
         <v>79</v>
@@ -2849,89 +6381,209 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>144</v>
+      </c>
+      <c r="E2" t="s">
+        <v>145</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>24</v>
+      </c>
+      <c r="H2">
+        <v>215.61</v>
+      </c>
+      <c r="I2">
+        <v>201.77</v>
+      </c>
+      <c r="J2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
+      <c r="E3" t="s">
+        <v>147</v>
+      </c>
       <c r="F3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>29</v>
+      </c>
+      <c r="H3">
+        <v>206.93</v>
+      </c>
+      <c r="I3">
+        <v>193.49</v>
+      </c>
+      <c r="J3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
+      <c r="E4" t="s">
+        <v>149</v>
+      </c>
       <c r="F4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>25</v>
+      </c>
+      <c r="H4">
+        <v>202.15</v>
+      </c>
+      <c r="I4">
+        <v>188.16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5">
         <v>35</v>
       </c>
+      <c r="E5" t="s">
+        <v>150</v>
+      </c>
       <c r="F5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>24</v>
+      </c>
+      <c r="H5">
+        <v>201.32</v>
+      </c>
+      <c r="I5">
+        <v>188.05</v>
+      </c>
+      <c r="J5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6">
         <v>10000</v>
       </c>
+      <c r="E6" t="s">
+        <v>152</v>
+      </c>
       <c r="F6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>25</v>
+      </c>
+      <c r="H6">
+        <v>195.46</v>
+      </c>
+      <c r="I6">
+        <v>183.17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7">
         <v>300</v>
       </c>
+      <c r="E7" t="s">
+        <v>120</v>
+      </c>
       <c r="F7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>27</v>
+      </c>
+      <c r="H7">
+        <v>193.15</v>
+      </c>
+      <c r="I7">
+        <v>180.09</v>
+      </c>
+      <c r="J7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8">
         <v>300</v>
       </c>
+      <c r="E8" t="s">
+        <v>154</v>
+      </c>
       <c r="F8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <v>30</v>
+      </c>
+      <c r="H8">
+        <v>192.16</v>
+      </c>
+      <c r="I8">
+        <v>179.4</v>
+      </c>
+      <c r="J8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>17</v>
       </c>
       <c r="B9">
         <v>300</v>
       </c>
+      <c r="E9" t="s">
+        <v>156</v>
+      </c>
       <c r="F9">
         <v>8</v>
+      </c>
+      <c r="G9">
+        <v>29</v>
+      </c>
+      <c r="H9">
+        <v>191.08</v>
+      </c>
+      <c r="I9">
+        <v>179.21</v>
+      </c>
+      <c r="J9" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2966,14 +6618,403 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="B14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>18</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="7" width="21.375" customWidth="1"/>
+    <col min="8" max="8" width="18.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H2">
+        <v>30</v>
+      </c>
+      <c r="I2">
+        <v>194.35</v>
+      </c>
+      <c r="J2">
+        <v>181.51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H3">
+        <v>27</v>
+      </c>
+      <c r="I3">
+        <v>195.44</v>
+      </c>
+      <c r="J3">
+        <v>183.79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G4" t="s">
+        <v>167</v>
+      </c>
+      <c r="H4">
+        <v>29</v>
+      </c>
+      <c r="I4">
+        <v>194.76</v>
+      </c>
+      <c r="J4">
+        <v>182.83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F5" t="s">
+        <v>169</v>
+      </c>
+      <c r="G5" t="s">
+        <v>170</v>
+      </c>
+      <c r="H5">
+        <v>28</v>
+      </c>
+      <c r="I5">
+        <v>192.12</v>
+      </c>
+      <c r="J5">
+        <v>181.21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>10000</v>
+      </c>
+      <c r="E6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G6" t="s">
+        <v>172</v>
+      </c>
+      <c r="H6">
+        <v>26</v>
+      </c>
+      <c r="I6">
+        <v>192.23</v>
+      </c>
+      <c r="J6">
+        <v>180.22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>300</v>
+      </c>
+      <c r="E7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H7">
+        <v>29</v>
+      </c>
+      <c r="I7">
+        <v>192.03</v>
+      </c>
+      <c r="J7">
+        <v>181.13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>300</v>
+      </c>
+      <c r="E8" t="s">
+        <v>176</v>
+      </c>
+      <c r="F8" t="s">
+        <v>174</v>
+      </c>
+      <c r="G8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H8">
+        <v>30</v>
+      </c>
+      <c r="I8">
+        <v>192.27</v>
+      </c>
+      <c r="J8">
+        <v>180.59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>4.1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>4.2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>4.3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>4.4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
